--- a/data/pca/factorExposure/factorExposure_2018-09-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03870565707604499</v>
+        <v>0.03164186246830339</v>
       </c>
       <c r="C2">
-        <v>-0.04821105288034599</v>
+        <v>-0.01021059372150022</v>
       </c>
       <c r="D2">
-        <v>-0.03549048247173667</v>
+        <v>-0.01152564862516687</v>
       </c>
       <c r="E2">
-        <v>-0.04634470782333842</v>
+        <v>0.01411302001596687</v>
       </c>
       <c r="F2">
-        <v>0.1413224998231201</v>
+        <v>0.02473518510389022</v>
       </c>
       <c r="G2">
-        <v>-0.096406390772572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07687531452254853</v>
+      </c>
+      <c r="H2">
+        <v>-0.019092748932557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1323522946157633</v>
+        <v>0.08292039365451985</v>
       </c>
       <c r="C3">
-        <v>-0.02570084506110559</v>
+        <v>0.02830199523937929</v>
       </c>
       <c r="D3">
-        <v>-0.0358140310860428</v>
+        <v>-0.02349514825633747</v>
       </c>
       <c r="E3">
-        <v>-0.0764265531483956</v>
+        <v>0.008564321210435218</v>
       </c>
       <c r="F3">
-        <v>0.3782626528398014</v>
+        <v>0.001351681539429503</v>
       </c>
       <c r="G3">
-        <v>-0.2604789802312238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2619546673546665</v>
+      </c>
+      <c r="H3">
+        <v>-0.04639759358196865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04659871231182629</v>
+        <v>0.04533498764598186</v>
       </c>
       <c r="C4">
-        <v>-0.03560152022973441</v>
+        <v>0.001873004078611113</v>
       </c>
       <c r="D4">
-        <v>0.002221034672652052</v>
+        <v>-0.0273340547342263</v>
       </c>
       <c r="E4">
-        <v>-0.0662785192866247</v>
+        <v>-0.02205186427554087</v>
       </c>
       <c r="F4">
-        <v>0.06955902099182076</v>
+        <v>0.06092330755257212</v>
       </c>
       <c r="G4">
-        <v>-0.06764894368490661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0434173889348697</v>
+      </c>
+      <c r="H4">
+        <v>-0.0292911376086881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0114110112553501</v>
+        <v>0.03023886548514361</v>
       </c>
       <c r="C6">
-        <v>-0.001245955431188237</v>
+        <v>0.001227697224763265</v>
       </c>
       <c r="D6">
-        <v>-0.01131343895526632</v>
+        <v>-0.03333860264791747</v>
       </c>
       <c r="E6">
-        <v>-0.009466741782309173</v>
+        <v>-0.006077659586871662</v>
       </c>
       <c r="F6">
-        <v>0.01376323798354121</v>
+        <v>0.03844278249159917</v>
       </c>
       <c r="G6">
-        <v>0.01915305176299361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.009797664219479559</v>
+      </c>
+      <c r="H6">
+        <v>-0.05233794689104217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02505793243752689</v>
+        <v>0.02045966293538659</v>
       </c>
       <c r="C7">
-        <v>-0.02018454557426635</v>
+        <v>0.0004159974344275738</v>
       </c>
       <c r="D7">
-        <v>-0.02796952521712143</v>
+        <v>-0.01408744456731476</v>
       </c>
       <c r="E7">
-        <v>-0.02987299802420299</v>
+        <v>-0.03632354263402489</v>
       </c>
       <c r="F7">
-        <v>0.0735362034377172</v>
+        <v>0.02459868467476367</v>
       </c>
       <c r="G7">
-        <v>-0.05611470095724087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03037150798471866</v>
+      </c>
+      <c r="H7">
+        <v>-0.01695998732254949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.009489868660631586</v>
+        <v>0.0007983413073994395</v>
       </c>
       <c r="C8">
-        <v>-0.008542343869873761</v>
+        <v>0.0003168783341952373</v>
       </c>
       <c r="D8">
-        <v>0.004107730177257702</v>
+        <v>-0.009978525207887915</v>
       </c>
       <c r="E8">
-        <v>-0.07197059316626707</v>
+        <v>-0.01324553523007574</v>
       </c>
       <c r="F8">
-        <v>0.09666478640216093</v>
+        <v>0.02517943423981264</v>
       </c>
       <c r="G8">
-        <v>-0.06378554483766422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05141701308093571</v>
+      </c>
+      <c r="H8">
+        <v>-0.01019458817812184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03796026632839301</v>
+        <v>0.03576090217148621</v>
       </c>
       <c r="C9">
-        <v>-0.03081744362916423</v>
+        <v>0.004732047153184074</v>
       </c>
       <c r="D9">
-        <v>0.01682415555799655</v>
+        <v>-0.02296814423752938</v>
       </c>
       <c r="E9">
-        <v>-0.06712734849610204</v>
+        <v>-0.02040270632250397</v>
       </c>
       <c r="F9">
-        <v>0.07160178063242002</v>
+        <v>0.03919047187531737</v>
       </c>
       <c r="G9">
-        <v>-0.04836572219103464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05458344651246134</v>
+      </c>
+      <c r="H9">
+        <v>-0.02859469439932079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05943791057167545</v>
+        <v>0.0875805358714806</v>
       </c>
       <c r="C10">
-        <v>-0.05117040148829652</v>
+        <v>0.04570545898441086</v>
       </c>
       <c r="D10">
-        <v>0.02442474979707662</v>
+        <v>0.1431176776187087</v>
       </c>
       <c r="E10">
-        <v>0.1141065697229909</v>
+        <v>0.01899863799405209</v>
       </c>
       <c r="F10">
-        <v>0.04551570049671923</v>
+        <v>-0.08180072176263425</v>
       </c>
       <c r="G10">
-        <v>0.002031922676060358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02868934128405556</v>
+      </c>
+      <c r="H10">
+        <v>-0.004285351859148654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03143529954535387</v>
+        <v>0.02108891709384303</v>
       </c>
       <c r="C11">
-        <v>-0.01168155955860328</v>
+        <v>0.011265381496495</v>
       </c>
       <c r="D11">
-        <v>-0.01517812713080106</v>
+        <v>-0.0311320103705813</v>
       </c>
       <c r="E11">
-        <v>-0.03155260995420069</v>
+        <v>0.003073817957046674</v>
       </c>
       <c r="F11">
-        <v>0.04075536608657661</v>
+        <v>0.02472805820278962</v>
       </c>
       <c r="G11">
-        <v>-0.02080712157809076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03238097867073151</v>
+      </c>
+      <c r="H11">
+        <v>-0.02939499719945794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03825026246441136</v>
+        <v>0.02979924562811108</v>
       </c>
       <c r="C12">
-        <v>-0.01295362910247554</v>
+        <v>0.01091659383170406</v>
       </c>
       <c r="D12">
-        <v>-0.002376016094888666</v>
+        <v>-0.02994456388746256</v>
       </c>
       <c r="E12">
-        <v>-0.04518466124847814</v>
+        <v>-0.007896442442582674</v>
       </c>
       <c r="F12">
-        <v>0.02257879700852254</v>
+        <v>0.02826758379048837</v>
       </c>
       <c r="G12">
-        <v>-0.01796292297989341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.008246208914611232</v>
+      </c>
+      <c r="H12">
+        <v>-0.01569868625865413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0186028909506363</v>
+        <v>0.02609136720253578</v>
       </c>
       <c r="C13">
-        <v>-0.02325276536239118</v>
+        <v>-0.009716565539785506</v>
       </c>
       <c r="D13">
-        <v>-0.03422637903268903</v>
+        <v>-0.003599513520631071</v>
       </c>
       <c r="E13">
-        <v>-0.019563318427044</v>
+        <v>0.01573569431055086</v>
       </c>
       <c r="F13">
-        <v>0.08588745800556147</v>
+        <v>0.02317474909039328</v>
       </c>
       <c r="G13">
-        <v>-0.05185078356801098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05972226675401462</v>
+      </c>
+      <c r="H13">
+        <v>-0.02767878188243845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01081192878883652</v>
+        <v>0.01548858342733591</v>
       </c>
       <c r="C14">
-        <v>-0.02157863306934847</v>
+        <v>0.002251814973373917</v>
       </c>
       <c r="D14">
-        <v>-0.003100442209892058</v>
+        <v>-0.0001738592003502047</v>
       </c>
       <c r="E14">
-        <v>-0.03605863748710945</v>
+        <v>-0.008315119568788241</v>
       </c>
       <c r="F14">
-        <v>0.07506529466374476</v>
+        <v>0.02536098637900638</v>
       </c>
       <c r="G14">
-        <v>-0.05486996445151098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04195546191906062</v>
+      </c>
+      <c r="H14">
+        <v>0.017327163087329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02478315213992484</v>
+        <v>0.02223322875925356</v>
       </c>
       <c r="C16">
-        <v>-0.01185622582155566</v>
+        <v>0.01188964129265154</v>
       </c>
       <c r="D16">
-        <v>-0.01255895066301573</v>
+        <v>-0.02684752316032366</v>
       </c>
       <c r="E16">
-        <v>-0.03110646067672288</v>
+        <v>-0.001822280563322966</v>
       </c>
       <c r="F16">
-        <v>0.04207554704461176</v>
+        <v>0.02528070664132528</v>
       </c>
       <c r="G16">
-        <v>-0.02507155689962661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02713579226202978</v>
+      </c>
+      <c r="H16">
+        <v>-0.02328442198720352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03767920672752664</v>
+        <v>0.03436897415245398</v>
       </c>
       <c r="C19">
-        <v>-0.01617852068105992</v>
+        <v>0.006151388495722171</v>
       </c>
       <c r="D19">
-        <v>-0.02159866789548621</v>
+        <v>-0.009983129452704973</v>
       </c>
       <c r="E19">
-        <v>-0.04082486666292996</v>
+        <v>0.001480626210178562</v>
       </c>
       <c r="F19">
-        <v>0.09743800135099911</v>
+        <v>0.03433769754960983</v>
       </c>
       <c r="G19">
-        <v>-0.06425268023219982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06204211108693593</v>
+      </c>
+      <c r="H19">
+        <v>-0.04104044806588292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006800028654208917</v>
+        <v>0.006896531679363413</v>
       </c>
       <c r="C20">
-        <v>-0.02129031851635322</v>
+        <v>-0.006652642477452479</v>
       </c>
       <c r="D20">
-        <v>-0.007229083431076973</v>
+        <v>-0.0006935183713377269</v>
       </c>
       <c r="E20">
-        <v>-0.02909732139866616</v>
+        <v>-0.001964903540805809</v>
       </c>
       <c r="F20">
-        <v>0.07180160673052474</v>
+        <v>0.01768922186809469</v>
       </c>
       <c r="G20">
-        <v>-0.06028261213532227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04953895001199824</v>
+      </c>
+      <c r="H20">
+        <v>0.00750448103205696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002244762186726887</v>
+        <v>0.0223221684000629</v>
       </c>
       <c r="C21">
-        <v>0.002780785554089208</v>
+        <v>-0.002718789361999699</v>
       </c>
       <c r="D21">
-        <v>-0.00405299576315596</v>
+        <v>-0.001294085156615851</v>
       </c>
       <c r="E21">
-        <v>-0.0293174892955616</v>
+        <v>-0.01308882439320035</v>
       </c>
       <c r="F21">
-        <v>0.08279204485417331</v>
+        <v>0.008968581939844423</v>
       </c>
       <c r="G21">
-        <v>-0.01743937275544788</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05007894717051738</v>
+      </c>
+      <c r="H21">
+        <v>-0.009539663752702366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02669680025439519</v>
+        <v>0.02135336865738612</v>
       </c>
       <c r="C24">
-        <v>-0.01200459835008683</v>
+        <v>0.006355408209284076</v>
       </c>
       <c r="D24">
-        <v>-0.009778519223390573</v>
+        <v>-0.02746355163762804</v>
       </c>
       <c r="E24">
-        <v>-0.0254760000112915</v>
+        <v>-0.00186012989201509</v>
       </c>
       <c r="F24">
-        <v>0.0410006505446237</v>
+        <v>0.02159135467549897</v>
       </c>
       <c r="G24">
-        <v>-0.01243372182945693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02607097849983078</v>
+      </c>
+      <c r="H24">
+        <v>-0.02874872867300179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03012416169623788</v>
+        <v>0.03240087349322084</v>
       </c>
       <c r="C25">
-        <v>-0.01103714123658084</v>
+        <v>0.006720631260530088</v>
       </c>
       <c r="D25">
-        <v>-0.007558503477856513</v>
+        <v>-0.02210328573490402</v>
       </c>
       <c r="E25">
-        <v>-0.03066365274030874</v>
+        <v>-0.002190949282924273</v>
       </c>
       <c r="F25">
-        <v>0.03819322387143518</v>
+        <v>0.0263639420742327</v>
       </c>
       <c r="G25">
-        <v>-0.006953398406469074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.030461667837151</v>
+      </c>
+      <c r="H25">
+        <v>-0.03106615989900529</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01789932352202313</v>
+        <v>0.01954068798217882</v>
       </c>
       <c r="C26">
-        <v>0.001042047614576484</v>
+        <v>-0.01542525934599197</v>
       </c>
       <c r="D26">
-        <v>-0.03469439760540042</v>
+        <v>-0.00443128264554715</v>
       </c>
       <c r="E26">
-        <v>-0.038325130290801</v>
+        <v>0.005445156430161075</v>
       </c>
       <c r="F26">
-        <v>0.05915512616448947</v>
+        <v>0.005686923121994142</v>
       </c>
       <c r="G26">
-        <v>-0.0339342146617254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03603401142666251</v>
+      </c>
+      <c r="H26">
+        <v>0.001136591239782452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07303116255116847</v>
+        <v>0.03196588155753571</v>
       </c>
       <c r="C27">
-        <v>-0.05184812079597827</v>
+        <v>0.01799600957984256</v>
       </c>
       <c r="D27">
-        <v>0.002191447349062968</v>
+        <v>-0.006444137420631458</v>
       </c>
       <c r="E27">
-        <v>-0.05333857092490624</v>
+        <v>-0.004311750423713204</v>
       </c>
       <c r="F27">
-        <v>0.06481717891066817</v>
+        <v>0.02692505878678364</v>
       </c>
       <c r="G27">
-        <v>-0.06299109044755757</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0264283263528945</v>
+      </c>
+      <c r="H27">
+        <v>0.0003784558672666568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08429226808947848</v>
+        <v>0.1338971174220869</v>
       </c>
       <c r="C28">
-        <v>-0.06591510618305471</v>
+        <v>0.05526477396903311</v>
       </c>
       <c r="D28">
-        <v>0.04237856307603732</v>
+        <v>0.2103974833486511</v>
       </c>
       <c r="E28">
-        <v>0.1725466974606612</v>
+        <v>0.02414739802120447</v>
       </c>
       <c r="F28">
-        <v>0.05649332323652689</v>
+        <v>-0.1121149327840891</v>
       </c>
       <c r="G28">
-        <v>-0.02616584177890694</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01075826261576883</v>
+      </c>
+      <c r="H28">
+        <v>0.008744172868300227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01913451352241741</v>
+        <v>0.02055429790114609</v>
       </c>
       <c r="C29">
-        <v>-0.02393195288044687</v>
+        <v>0.005427004394223691</v>
       </c>
       <c r="D29">
-        <v>0.002426724264383654</v>
+        <v>-0.002914220736812201</v>
       </c>
       <c r="E29">
-        <v>-0.05717107791749654</v>
+        <v>-0.01019046905917824</v>
       </c>
       <c r="F29">
-        <v>0.05627330615107522</v>
+        <v>0.02928449768158845</v>
       </c>
       <c r="G29">
-        <v>-0.0539902186071529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03336957436518016</v>
+      </c>
+      <c r="H29">
+        <v>0.0194033008769582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07871102476689912</v>
+        <v>0.05373078514000326</v>
       </c>
       <c r="C30">
-        <v>-0.05843613586658108</v>
+        <v>0.004750048925590509</v>
       </c>
       <c r="D30">
-        <v>-0.03306812065804855</v>
+        <v>-0.0499440770237418</v>
       </c>
       <c r="E30">
-        <v>-0.08909637604843065</v>
+        <v>0.03324128534225156</v>
       </c>
       <c r="F30">
-        <v>0.05994773770844217</v>
+        <v>0.0806512425921752</v>
       </c>
       <c r="G30">
-        <v>-0.02854293181553711</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05860732005197813</v>
+      </c>
+      <c r="H30">
+        <v>-0.03971287142962741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05713803652367655</v>
+        <v>0.05178742685550109</v>
       </c>
       <c r="C31">
-        <v>-0.01889437740708458</v>
+        <v>0.02251207423182919</v>
       </c>
       <c r="D31">
-        <v>-0.04612077111780792</v>
+        <v>-0.02128529458102384</v>
       </c>
       <c r="E31">
-        <v>-0.03718967037362719</v>
+        <v>0.008539447343838987</v>
       </c>
       <c r="F31">
-        <v>0.04437478941604699</v>
+        <v>0.02314986367147385</v>
       </c>
       <c r="G31">
-        <v>-0.08431994668743192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01943888263558961</v>
+      </c>
+      <c r="H31">
+        <v>0.01454455942229117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01223040690108968</v>
+        <v>0.00674307434452198</v>
       </c>
       <c r="C32">
-        <v>-0.01940894496441911</v>
+        <v>0.01502811876339084</v>
       </c>
       <c r="D32">
-        <v>0.0008177407106007752</v>
+        <v>0.006804804407381256</v>
       </c>
       <c r="E32">
-        <v>-0.07386980567840469</v>
+        <v>-0.01958656870501483</v>
       </c>
       <c r="F32">
-        <v>0.0752274763980557</v>
+        <v>0.04136525629405856</v>
       </c>
       <c r="G32">
-        <v>-0.04310379130733153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05027679937040981</v>
+      </c>
+      <c r="H32">
+        <v>-0.04340340487405004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04970914232443772</v>
+        <v>0.03798592087381881</v>
       </c>
       <c r="C33">
-        <v>-0.002878291007676682</v>
+        <v>0.005954232832665206</v>
       </c>
       <c r="D33">
-        <v>-0.04477766824094419</v>
+        <v>-0.02999627235094354</v>
       </c>
       <c r="E33">
-        <v>-0.06359616842006624</v>
+        <v>0.02160768615529917</v>
       </c>
       <c r="F33">
-        <v>0.09732133617364146</v>
+        <v>0.01596105351046286</v>
       </c>
       <c r="G33">
-        <v>-0.04469858363237499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05716845266046872</v>
+      </c>
+      <c r="H33">
+        <v>-0.01857052019846729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02910100803621583</v>
+        <v>0.02466231476928995</v>
       </c>
       <c r="C34">
-        <v>-0.01711176432849544</v>
+        <v>0.02070543882800941</v>
       </c>
       <c r="D34">
-        <v>-0.01173694080988448</v>
+        <v>-0.02616046686624107</v>
       </c>
       <c r="E34">
-        <v>-0.03676411259936252</v>
+        <v>-0.006300739798388195</v>
       </c>
       <c r="F34">
-        <v>0.04552431082613969</v>
+        <v>0.02748326802966417</v>
       </c>
       <c r="G34">
-        <v>-0.01355505537434066</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02548663015150528</v>
+      </c>
+      <c r="H34">
+        <v>-0.02660359462522795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01349521639040808</v>
+        <v>0.0187577711336974</v>
       </c>
       <c r="C36">
-        <v>-0.01023560071795405</v>
+        <v>-0.001629885361583573</v>
       </c>
       <c r="D36">
-        <v>-0.001468778300173361</v>
+        <v>0.002710097484307994</v>
       </c>
       <c r="E36">
-        <v>-0.02552272211179704</v>
+        <v>-0.002716032924806151</v>
       </c>
       <c r="F36">
-        <v>0.03035099769694354</v>
+        <v>0.00675820605556967</v>
       </c>
       <c r="G36">
-        <v>-0.03405559989189039</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01889521021522308</v>
+      </c>
+      <c r="H36">
+        <v>0.004482441996898737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007315695213744845</v>
+        <v>0.01576290991359839</v>
       </c>
       <c r="C38">
-        <v>0.00174612303360023</v>
+        <v>0.01808493561094003</v>
       </c>
       <c r="D38">
-        <v>0.01183163220376718</v>
+        <v>0.003756589245683165</v>
       </c>
       <c r="E38">
-        <v>0.004483456746316193</v>
+        <v>-0.006058431929932937</v>
       </c>
       <c r="F38">
-        <v>0.002289728273126026</v>
+        <v>0.00807616572395037</v>
       </c>
       <c r="G38">
-        <v>0.003343260259618926</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02573653672609256</v>
+      </c>
+      <c r="H38">
+        <v>-0.02099039993036573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03825615040271059</v>
+        <v>0.0235238621234727</v>
       </c>
       <c r="C39">
-        <v>-0.02457215920768695</v>
+        <v>0.004819901062099139</v>
       </c>
       <c r="D39">
-        <v>-0.02918457612072594</v>
+        <v>-0.06252220027728062</v>
       </c>
       <c r="E39">
-        <v>-0.03547989619457041</v>
+        <v>0.00141157795437979</v>
       </c>
       <c r="F39">
-        <v>0.05085767641443947</v>
+        <v>0.04792422320385567</v>
       </c>
       <c r="G39">
-        <v>-0.01444790246104048</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05156610358733712</v>
+      </c>
+      <c r="H39">
+        <v>-0.05292039212149834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02884035282945911</v>
+        <v>0.02774527772185462</v>
       </c>
       <c r="C40">
-        <v>-0.03725149609095112</v>
+        <v>0.004492319519904055</v>
       </c>
       <c r="D40">
-        <v>-0.05370243891646427</v>
+        <v>-0.0217377714147719</v>
       </c>
       <c r="E40">
-        <v>-0.03819530044053639</v>
+        <v>0.01828690685665255</v>
       </c>
       <c r="F40">
-        <v>0.08394648595794468</v>
+        <v>0.03963566376536215</v>
       </c>
       <c r="G40">
-        <v>-0.06165804573001617</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03440723626336897</v>
+      </c>
+      <c r="H40">
+        <v>-0.04587616567753774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002984741927050622</v>
+        <v>0.007664296803533859</v>
       </c>
       <c r="C41">
-        <v>0.01115373065376995</v>
+        <v>-0.0004728398975348987</v>
       </c>
       <c r="D41">
-        <v>-0.006917747637760431</v>
+        <v>0.008169937652613229</v>
       </c>
       <c r="E41">
-        <v>-0.01952223402705076</v>
+        <v>0.0009551897597896034</v>
       </c>
       <c r="F41">
-        <v>0.02497639522681704</v>
+        <v>-0.006086804046260425</v>
       </c>
       <c r="G41">
-        <v>-0.05259339391526534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.007887182568656191</v>
+      </c>
+      <c r="H41">
+        <v>0.01774352692416614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3950380909276686</v>
+        <v>0.2264409996451318</v>
       </c>
       <c r="C42">
-        <v>0.8788901015176119</v>
+        <v>-0.07740352357078618</v>
       </c>
       <c r="D42">
-        <v>-0.1738109634839027</v>
+        <v>-0.5949866022989524</v>
       </c>
       <c r="E42">
-        <v>0.1095180598275208</v>
+        <v>0.1200784073914881</v>
       </c>
       <c r="F42">
-        <v>-0.02120587655628079</v>
+        <v>-0.7440832505298549</v>
       </c>
       <c r="G42">
-        <v>-0.003857208473218103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.06735599091903606</v>
+      </c>
+      <c r="H42">
+        <v>-0.0148934789946127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009275388859922521</v>
+        <v>0.005291347274989796</v>
       </c>
       <c r="C43">
-        <v>0.006603649405157419</v>
+        <v>-0.003011627043553725</v>
       </c>
       <c r="D43">
-        <v>-0.01082307839853792</v>
+        <v>0.01066288412898138</v>
       </c>
       <c r="E43">
-        <v>-0.01796544816426592</v>
+        <v>0.00530269589284714</v>
       </c>
       <c r="F43">
-        <v>0.04065781735110179</v>
+        <v>-0.01067523000041902</v>
       </c>
       <c r="G43">
-        <v>-0.05094001293137045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01649889486441092</v>
+      </c>
+      <c r="H43">
+        <v>0.00969225757952025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01685827405380578</v>
+        <v>0.0119434236018088</v>
       </c>
       <c r="C44">
-        <v>-0.005835235536639938</v>
+        <v>0.0009992343028543433</v>
       </c>
       <c r="D44">
-        <v>-0.02083472078975387</v>
+        <v>-0.01977950153598774</v>
       </c>
       <c r="E44">
-        <v>-0.04721664637849099</v>
+        <v>-0.002475108309447518</v>
       </c>
       <c r="F44">
-        <v>0.2003979942889475</v>
+        <v>0.006174551626484334</v>
       </c>
       <c r="G44">
-        <v>-0.1629627151718084</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08430480469227719</v>
+      </c>
+      <c r="H44">
+        <v>-0.01807959485273773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01861172337694832</v>
+        <v>0.02192081528097449</v>
       </c>
       <c r="C46">
-        <v>-0.02157602511894086</v>
+        <v>0.001965118161033124</v>
       </c>
       <c r="D46">
-        <v>-0.02205735275700077</v>
+        <v>-0.005331482029111659</v>
       </c>
       <c r="E46">
-        <v>-0.06465572560209229</v>
+        <v>0.001678473680593916</v>
       </c>
       <c r="F46">
-        <v>0.07877247575403812</v>
+        <v>0.03363887810605757</v>
       </c>
       <c r="G46">
-        <v>-0.04092913312200186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05345746886211042</v>
+      </c>
+      <c r="H46">
+        <v>0.01251222451224995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09214339138406158</v>
+        <v>0.07088932858090642</v>
       </c>
       <c r="C47">
-        <v>-0.03370837576984362</v>
+        <v>0.0412040428141384</v>
       </c>
       <c r="D47">
-        <v>-0.0248879095519996</v>
+        <v>-0.02844060986543476</v>
       </c>
       <c r="E47">
-        <v>-0.04941854004543177</v>
+        <v>0.004335635193141409</v>
       </c>
       <c r="F47">
-        <v>0.01514336021586127</v>
+        <v>0.03390857838521711</v>
       </c>
       <c r="G47">
-        <v>-0.08991282041805035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01209593390054968</v>
+      </c>
+      <c r="H47">
+        <v>0.03174777431865571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.009130653137125307</v>
+        <v>0.01685966853585435</v>
       </c>
       <c r="C48">
-        <v>-0.005370539639089935</v>
+        <v>0.007876874508676813</v>
       </c>
       <c r="D48">
-        <v>-0.01359156315351573</v>
+        <v>-0.003906405716325712</v>
       </c>
       <c r="E48">
-        <v>-0.03964476691329485</v>
+        <v>0.000793550439043455</v>
       </c>
       <c r="F48">
-        <v>0.04562987658898612</v>
+        <v>0.0120473238497509</v>
       </c>
       <c r="G48">
-        <v>-0.008672230863371714</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02546946397698815</v>
+      </c>
+      <c r="H48">
+        <v>-0.000438315897309599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08480369904017375</v>
+        <v>0.0639873461094778</v>
       </c>
       <c r="C50">
-        <v>-0.01797695926460396</v>
+        <v>0.03425983012139696</v>
       </c>
       <c r="D50">
-        <v>-0.03558041933674797</v>
+        <v>-0.0392164461830344</v>
       </c>
       <c r="E50">
-        <v>-0.05789950811579177</v>
+        <v>-0.01075627135467207</v>
       </c>
       <c r="F50">
-        <v>0.03522891825801966</v>
+        <v>0.03075900417034328</v>
       </c>
       <c r="G50">
-        <v>-0.01617100052804335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01937349236842061</v>
+      </c>
+      <c r="H50">
+        <v>0.02611294065533793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.03885139858523402</v>
+        <v>0.0255955254393501</v>
       </c>
       <c r="C51">
-        <v>0.001334881860858819</v>
+        <v>0.004559302652201344</v>
       </c>
       <c r="D51">
-        <v>-0.04146350108349191</v>
+        <v>0.005451287518633911</v>
       </c>
       <c r="E51">
-        <v>-0.003026664062898511</v>
+        <v>0.01277711421882497</v>
       </c>
       <c r="F51">
-        <v>0.1496982357139673</v>
+        <v>-0.01790717470200683</v>
       </c>
       <c r="G51">
-        <v>-0.06180997524059682</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07669147450979741</v>
+      </c>
+      <c r="H51">
+        <v>-0.02069962060379838</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1019736865092818</v>
+        <v>0.08942112716884368</v>
       </c>
       <c r="C53">
-        <v>-0.0467618105690798</v>
+        <v>0.0509197722412629</v>
       </c>
       <c r="D53">
-        <v>-0.04360316578703369</v>
+        <v>-0.05507740038962546</v>
       </c>
       <c r="E53">
-        <v>-0.06299120535154625</v>
+        <v>0.00208169730432761</v>
       </c>
       <c r="F53">
-        <v>-0.04982918930913111</v>
+        <v>0.06693895033130523</v>
       </c>
       <c r="G53">
-        <v>-0.03879475242443684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05599354229566855</v>
+      </c>
+      <c r="H53">
+        <v>0.0378119772711932</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02190706168543034</v>
+        <v>0.02360122897207282</v>
       </c>
       <c r="C54">
-        <v>-0.03627994489964496</v>
+        <v>0.0172202716076428</v>
       </c>
       <c r="D54">
-        <v>-0.00179072966292745</v>
+        <v>0.02235953618414855</v>
       </c>
       <c r="E54">
-        <v>-0.03175359454942874</v>
+        <v>-0.003180092401609335</v>
       </c>
       <c r="F54">
-        <v>0.08550344966744954</v>
+        <v>0.01109679250020915</v>
       </c>
       <c r="G54">
-        <v>-0.06108598751290529</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04005611646463796</v>
+      </c>
+      <c r="H54">
+        <v>0.01786932009788462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0979789862918261</v>
+        <v>0.07723300279490565</v>
       </c>
       <c r="C55">
-        <v>-0.03385304257237325</v>
+        <v>0.04498457386907657</v>
       </c>
       <c r="D55">
-        <v>0.001092749916923109</v>
+        <v>-0.05244892065219114</v>
       </c>
       <c r="E55">
-        <v>-0.0640960847380123</v>
+        <v>-0.01013417552549537</v>
       </c>
       <c r="F55">
-        <v>-0.03595403432129069</v>
+        <v>0.05638717173212835</v>
       </c>
       <c r="G55">
-        <v>-0.05331561781028097</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03194667353171294</v>
+      </c>
+      <c r="H55">
+        <v>0.04879544068330106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1402746053812119</v>
+        <v>0.1177295680509067</v>
       </c>
       <c r="C56">
-        <v>-0.07599121408587917</v>
+        <v>0.07386833425482513</v>
       </c>
       <c r="D56">
-        <v>-0.02946787524638228</v>
+        <v>-0.07241531835963949</v>
       </c>
       <c r="E56">
-        <v>-0.08261839008547919</v>
+        <v>-0.002628428195571933</v>
       </c>
       <c r="F56">
-        <v>-0.1584946482836964</v>
+        <v>0.09549778068378137</v>
       </c>
       <c r="G56">
-        <v>-0.03188452664523245</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0994561521444306</v>
+      </c>
+      <c r="H56">
+        <v>0.03074740898538644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04331582726974482</v>
+        <v>0.0434344501031485</v>
       </c>
       <c r="C57">
-        <v>-0.01498495775584918</v>
+        <v>-0.002452925526748162</v>
       </c>
       <c r="D57">
-        <v>-0.02728852525177805</v>
+        <v>-0.01691879839221639</v>
       </c>
       <c r="E57">
-        <v>-0.01625902025415009</v>
+        <v>0.01038415554729881</v>
       </c>
       <c r="F57">
-        <v>0.06764110969949254</v>
+        <v>0.0255937489888897</v>
       </c>
       <c r="G57">
-        <v>-0.02247726359425807</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06559020172301795</v>
+      </c>
+      <c r="H57">
+        <v>-0.01369459788729285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2049230091904078</v>
+        <v>0.1544596376022877</v>
       </c>
       <c r="C58">
-        <v>-0.06620201034219504</v>
+        <v>0.07196181927365156</v>
       </c>
       <c r="D58">
-        <v>-0.1132467849872841</v>
+        <v>-0.1127798698047437</v>
       </c>
       <c r="E58">
-        <v>-0.2170937907449934</v>
+        <v>0.1165920513369384</v>
       </c>
       <c r="F58">
-        <v>0.3253381738412304</v>
+        <v>0.06893087793959501</v>
       </c>
       <c r="G58">
-        <v>0.4163369826804583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.70264656236866</v>
+      </c>
+      <c r="H58">
+        <v>0.5259934170841704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08213942685118571</v>
+        <v>0.1352833561932742</v>
       </c>
       <c r="C59">
-        <v>-0.08957769839319916</v>
+        <v>0.06247854440275036</v>
       </c>
       <c r="D59">
-        <v>0.03370625505807385</v>
+        <v>0.2090297855780356</v>
       </c>
       <c r="E59">
-        <v>0.1501429325192047</v>
+        <v>0.04067172110211301</v>
       </c>
       <c r="F59">
-        <v>0.05157852155151771</v>
+        <v>-0.09259361894092186</v>
       </c>
       <c r="G59">
-        <v>0.004926852157033018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01571321724525697</v>
+      </c>
+      <c r="H59">
+        <v>-0.02275165890691621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1712979413235682</v>
+        <v>0.168924528917766</v>
       </c>
       <c r="C60">
-        <v>-0.07191724203614623</v>
+        <v>0.06703428505002558</v>
       </c>
       <c r="D60">
-        <v>-0.06151552927778543</v>
+        <v>-0.01012646950246334</v>
       </c>
       <c r="E60">
-        <v>-0.02148494335016777</v>
+        <v>0.05297124576021554</v>
       </c>
       <c r="F60">
-        <v>0.06216160583821274</v>
+        <v>0.06666578232453026</v>
       </c>
       <c r="G60">
-        <v>0.2632356566862606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1145383128585099</v>
+      </c>
+      <c r="H60">
+        <v>-0.3767523474417822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02017178944795299</v>
+        <v>0.02230083120883496</v>
       </c>
       <c r="C61">
-        <v>-0.01321738895085339</v>
+        <v>0.01018115792573492</v>
       </c>
       <c r="D61">
-        <v>-0.005348228603940505</v>
+        <v>-0.03300703239863637</v>
       </c>
       <c r="E61">
-        <v>-0.018589773923424</v>
+        <v>-0.003226776839583769</v>
       </c>
       <c r="F61">
-        <v>0.03961893515658151</v>
+        <v>0.03423002338341789</v>
       </c>
       <c r="G61">
-        <v>-0.001975114202592429</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03016206093735902</v>
+      </c>
+      <c r="H61">
+        <v>-0.03867761388559929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01688894020166301</v>
+        <v>0.01354422772267669</v>
       </c>
       <c r="C63">
-        <v>-0.01477944381369903</v>
+        <v>0.0006617095843831265</v>
       </c>
       <c r="D63">
-        <v>-0.01354120162140996</v>
+        <v>-0.004699278347717419</v>
       </c>
       <c r="E63">
-        <v>-0.04085088759252653</v>
+        <v>-0.00241721265969442</v>
       </c>
       <c r="F63">
-        <v>0.02158964960458577</v>
+        <v>0.02085693066788292</v>
       </c>
       <c r="G63">
-        <v>-0.03606934760530025</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01669678183440433</v>
+      </c>
+      <c r="H63">
+        <v>0.0125051217532577</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.02950617751685944</v>
+        <v>0.03817263928565511</v>
       </c>
       <c r="C64">
-        <v>-0.0202639841332518</v>
+        <v>0.01598743291602072</v>
       </c>
       <c r="D64">
-        <v>0.01898515018778029</v>
+        <v>-0.03068501359550494</v>
       </c>
       <c r="E64">
-        <v>-0.04369296090997819</v>
+        <v>-0.01393392324874275</v>
       </c>
       <c r="F64">
-        <v>0.02639899973534466</v>
+        <v>0.03013442125298004</v>
       </c>
       <c r="G64">
-        <v>-0.07308036283794013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.007853976512281544</v>
+      </c>
+      <c r="H64">
+        <v>-0.0287076357345411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01152379622454124</v>
+        <v>0.03498787438732285</v>
       </c>
       <c r="C65">
-        <v>0.0001509229124227445</v>
+        <v>0.001417155908542337</v>
       </c>
       <c r="D65">
-        <v>-0.01019496728604269</v>
+        <v>-0.03797298919285727</v>
       </c>
       <c r="E65">
-        <v>-0.005537253175400301</v>
+        <v>-0.00621021116947369</v>
       </c>
       <c r="F65">
-        <v>0.009231925653525024</v>
+        <v>0.03927724452168308</v>
       </c>
       <c r="G65">
-        <v>0.01960943212224358</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0009099575880900711</v>
+      </c>
+      <c r="H65">
+        <v>-0.06014911184400749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03536082135861675</v>
+        <v>0.02951756184621267</v>
       </c>
       <c r="C66">
-        <v>-0.02873631070606614</v>
+        <v>0.01083049223777253</v>
       </c>
       <c r="D66">
-        <v>-0.02238991350380395</v>
+        <v>-0.06937347172171823</v>
       </c>
       <c r="E66">
-        <v>-0.03892440510053653</v>
+        <v>0.006287043914434593</v>
       </c>
       <c r="F66">
-        <v>0.04198970065305397</v>
+        <v>0.06815016105614061</v>
       </c>
       <c r="G66">
-        <v>-0.008644506757818823</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04083252709603026</v>
+      </c>
+      <c r="H66">
+        <v>-0.06375893357545127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02620218862700785</v>
+        <v>0.03516361794893421</v>
       </c>
       <c r="C67">
-        <v>-0.007919487412544283</v>
+        <v>0.02450908940175559</v>
       </c>
       <c r="D67">
-        <v>0.01556614199291397</v>
+        <v>0.01055978099544668</v>
       </c>
       <c r="E67">
-        <v>0.03180551875238515</v>
+        <v>-0.002611742364042273</v>
       </c>
       <c r="F67">
-        <v>0.003443883990647816</v>
+        <v>0.01015129579494302</v>
       </c>
       <c r="G67">
-        <v>-0.001290258136605333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01453535712254266</v>
+      </c>
+      <c r="H67">
+        <v>-0.03188976109875157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0898904228800185</v>
+        <v>0.1385073855138153</v>
       </c>
       <c r="C68">
-        <v>-0.07145382961204996</v>
+        <v>0.04071753844261133</v>
       </c>
       <c r="D68">
-        <v>0.04870061661171764</v>
+        <v>0.1942764853500661</v>
       </c>
       <c r="E68">
-        <v>0.1677567919830476</v>
+        <v>0.03573398599894322</v>
       </c>
       <c r="F68">
-        <v>0.0249972300081044</v>
+        <v>-0.1107764689462594</v>
       </c>
       <c r="G68">
-        <v>0.05886623075789417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01787416355029193</v>
+      </c>
+      <c r="H68">
+        <v>0.03787070074967099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07163467199892698</v>
+        <v>0.05536799071211705</v>
       </c>
       <c r="C69">
-        <v>-0.03359341573011129</v>
+        <v>0.03705947598973913</v>
       </c>
       <c r="D69">
-        <v>-0.02551325739426785</v>
+        <v>-0.02622520455786579</v>
       </c>
       <c r="E69">
-        <v>-0.01189264495921828</v>
+        <v>0.004293037698620967</v>
       </c>
       <c r="F69">
-        <v>0.02817414249738688</v>
+        <v>0.0327174031706983</v>
       </c>
       <c r="G69">
-        <v>-0.06801905244859496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.00492809658548149</v>
+      </c>
+      <c r="H69">
+        <v>0.01288280718392896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.108075019941441</v>
+        <v>0.1324227217000341</v>
       </c>
       <c r="C71">
-        <v>-0.07566236649082531</v>
+        <v>0.04840642197342008</v>
       </c>
       <c r="D71">
-        <v>0.02736475360702546</v>
+        <v>0.1826597490803185</v>
       </c>
       <c r="E71">
-        <v>0.214134042095859</v>
+        <v>0.03620310092138911</v>
       </c>
       <c r="F71">
-        <v>0.03745361829454665</v>
+        <v>-0.116883501662452</v>
       </c>
       <c r="G71">
-        <v>-0.0002604356368284734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01581273927066688</v>
+      </c>
+      <c r="H71">
+        <v>0.02141123922232939</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1084817859512141</v>
+        <v>0.08450059565433628</v>
       </c>
       <c r="C72">
-        <v>-0.09915716417068181</v>
+        <v>0.05699570438801915</v>
       </c>
       <c r="D72">
-        <v>-0.01478118015307263</v>
+        <v>-0.05369384900561969</v>
       </c>
       <c r="E72">
-        <v>-0.06761803335809172</v>
+        <v>0.007558486913421598</v>
       </c>
       <c r="F72">
-        <v>0.08389950936424163</v>
+        <v>0.1134746672998883</v>
       </c>
       <c r="G72">
-        <v>0.1590951472351928</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.09118728455275722</v>
+      </c>
+      <c r="H72">
+        <v>-0.1498681531584744</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2573616129114711</v>
+        <v>0.2383560900562144</v>
       </c>
       <c r="C73">
-        <v>-0.108336883898708</v>
+        <v>0.08986695847110251</v>
       </c>
       <c r="D73">
-        <v>-0.0561515585619045</v>
+        <v>-0.03860723748156159</v>
       </c>
       <c r="E73">
-        <v>0.02555185511490956</v>
+        <v>0.08351726873036416</v>
       </c>
       <c r="F73">
-        <v>0.1237303499323506</v>
+        <v>0.08498063057437841</v>
       </c>
       <c r="G73">
-        <v>0.4069434962451981</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1702269235531925</v>
+      </c>
+      <c r="H73">
+        <v>-0.5148319767695168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1214692579142565</v>
+        <v>0.1064768677076902</v>
       </c>
       <c r="C74">
-        <v>-0.04158197122081321</v>
+        <v>0.06593758353864025</v>
       </c>
       <c r="D74">
-        <v>-0.03351181253783877</v>
+        <v>-0.07301226353605184</v>
       </c>
       <c r="E74">
-        <v>-0.04045213446746313</v>
+        <v>0.005453402409351129</v>
       </c>
       <c r="F74">
-        <v>-0.1104423847935039</v>
+        <v>0.07821904732615766</v>
       </c>
       <c r="G74">
-        <v>-0.02290122113536713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07896918486939156</v>
+      </c>
+      <c r="H74">
+        <v>0.009720637804171322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2128552455529619</v>
+        <v>0.2107614703992609</v>
       </c>
       <c r="C75">
-        <v>-0.1186070017266753</v>
+        <v>0.1332026802320347</v>
       </c>
       <c r="D75">
-        <v>-0.07129068733792586</v>
+        <v>-0.1111679697264983</v>
       </c>
       <c r="E75">
-        <v>-0.1045155397569902</v>
+        <v>0.02352567698388558</v>
       </c>
       <c r="F75">
-        <v>-0.1756095141811817</v>
+        <v>0.1591889615117394</v>
       </c>
       <c r="G75">
-        <v>-0.1066651558296947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1612523868026579</v>
+      </c>
+      <c r="H75">
+        <v>0.09601265688203353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2510224956147432</v>
+        <v>0.1963600372897801</v>
       </c>
       <c r="C76">
-        <v>-0.1221633392635812</v>
+        <v>0.1283332433670684</v>
       </c>
       <c r="D76">
-        <v>-0.01207929566918128</v>
+        <v>-0.09778667151408295</v>
       </c>
       <c r="E76">
-        <v>-0.06632682826879872</v>
+        <v>-0.01648385162631334</v>
       </c>
       <c r="F76">
-        <v>-0.1921242761871601</v>
+        <v>0.1527080853360066</v>
       </c>
       <c r="G76">
-        <v>-0.09129028214527786</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1742695282136978</v>
+      </c>
+      <c r="H76">
+        <v>0.09892262586564249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1325768014274016</v>
+        <v>0.0724412181303349</v>
       </c>
       <c r="C77">
-        <v>0.01438909304706067</v>
+        <v>0.01968901724515841</v>
       </c>
       <c r="D77">
-        <v>-0.07331683110944549</v>
+        <v>-0.07459244734835165</v>
       </c>
       <c r="E77">
-        <v>-0.08632804714291349</v>
+        <v>0.01216180247116463</v>
       </c>
       <c r="F77">
-        <v>0.2445940056470963</v>
+        <v>0.01047148172250963</v>
       </c>
       <c r="G77">
-        <v>-0.1456813352986177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1235862194855777</v>
+      </c>
+      <c r="H77">
+        <v>0.05715882027330844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04885140926548804</v>
+        <v>0.03240316578526826</v>
       </c>
       <c r="C78">
-        <v>-0.01194410012918769</v>
+        <v>0.01342576901326341</v>
       </c>
       <c r="D78">
-        <v>-0.03101966861504516</v>
+        <v>-0.05549516524948422</v>
       </c>
       <c r="E78">
-        <v>-0.09913872766026986</v>
+        <v>-0.005417339821637641</v>
       </c>
       <c r="F78">
-        <v>0.04506062021041748</v>
+        <v>0.05158178537580865</v>
       </c>
       <c r="G78">
-        <v>-0.06811671462343022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04839432457661615</v>
+      </c>
+      <c r="H78">
+        <v>-0.03136851097226048</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1967923466458283</v>
+        <v>0.1690416665164232</v>
       </c>
       <c r="C80">
-        <v>0.1379492019647669</v>
+        <v>0.07867375525277399</v>
       </c>
       <c r="D80">
-        <v>0.9241975385086286</v>
+        <v>-0.009576318537131414</v>
       </c>
       <c r="E80">
-        <v>-0.2568656227959965</v>
+        <v>-0.9612591283927219</v>
       </c>
       <c r="F80">
-        <v>0.03854075526654174</v>
+        <v>-0.120314796467798</v>
       </c>
       <c r="G80">
-        <v>0.02236940519505904</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09874719401102496</v>
+      </c>
+      <c r="H80">
+        <v>-0.009574670712022934</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1478024982553663</v>
+        <v>0.1423944156983163</v>
       </c>
       <c r="C81">
-        <v>-0.1018143841172367</v>
+        <v>0.09022714822070781</v>
       </c>
       <c r="D81">
-        <v>-0.02199979914005888</v>
+        <v>-0.06294141631147283</v>
       </c>
       <c r="E81">
-        <v>-0.07419546269531221</v>
+        <v>0.001302031807034588</v>
       </c>
       <c r="F81">
-        <v>-0.1689653202219155</v>
+        <v>0.1107956976342378</v>
       </c>
       <c r="G81">
-        <v>-0.02622655831979634</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1048116834476805</v>
+      </c>
+      <c r="H81">
+        <v>0.07068416841529168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05076136973359723</v>
+        <v>0.03709087425777308</v>
       </c>
       <c r="C83">
-        <v>0.009993335246271362</v>
+        <v>0.01294994261546621</v>
       </c>
       <c r="D83">
-        <v>-0.03673274251973346</v>
+        <v>-0.02036792777419639</v>
       </c>
       <c r="E83">
-        <v>-0.03258421480915477</v>
+        <v>0.01223604651619497</v>
       </c>
       <c r="F83">
-        <v>0.06647612443957863</v>
+        <v>0.0137227606808542</v>
       </c>
       <c r="G83">
-        <v>-0.06638022046542869</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05195616956843545</v>
+      </c>
+      <c r="H83">
+        <v>-0.01731935647428225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2212461592289549</v>
+        <v>0.2010799327378352</v>
       </c>
       <c r="C85">
-        <v>-0.1011791441047618</v>
+        <v>0.1138398860528894</v>
       </c>
       <c r="D85">
-        <v>-0.04515873663205387</v>
+        <v>-0.1176643868835931</v>
       </c>
       <c r="E85">
-        <v>-0.07625539354293848</v>
+        <v>0.01370238743038677</v>
       </c>
       <c r="F85">
-        <v>-0.1868469059882443</v>
+        <v>0.1432563505693005</v>
       </c>
       <c r="G85">
-        <v>-0.09512182173011711</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1641858718399527</v>
+      </c>
+      <c r="H85">
+        <v>0.07085968590636645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003228260312052704</v>
+        <v>0.01354154737647222</v>
       </c>
       <c r="C86">
-        <v>0.01105311163590248</v>
+        <v>-0.0002994586835587123</v>
       </c>
       <c r="D86">
-        <v>-0.005138839428329464</v>
+        <v>-0.007355475452867156</v>
       </c>
       <c r="E86">
-        <v>-0.05368506544829543</v>
+        <v>0.008285073425449582</v>
       </c>
       <c r="F86">
-        <v>0.07670896070447907</v>
+        <v>0.0004932032488270445</v>
       </c>
       <c r="G86">
-        <v>-0.03536045780108155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07699146695629945</v>
+      </c>
+      <c r="H86">
+        <v>-0.0435715103946001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02995084122063634</v>
+        <v>0.02543739008830055</v>
       </c>
       <c r="C87">
-        <v>-0.0069266326835862</v>
+        <v>0.00585912469860953</v>
       </c>
       <c r="D87">
-        <v>-0.01146373247321885</v>
+        <v>-0.02644336579297533</v>
       </c>
       <c r="E87">
-        <v>-0.03482541952888803</v>
+        <v>0.0001970617777314814</v>
       </c>
       <c r="F87">
-        <v>0.07225997910974556</v>
+        <v>0.02701854263165559</v>
       </c>
       <c r="G87">
-        <v>0.005385276290443069</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08990603383363326</v>
+      </c>
+      <c r="H87">
+        <v>-0.03194572209634292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.008671212915517736</v>
+        <v>0.03803582102225912</v>
       </c>
       <c r="C88">
-        <v>-0.01734780047493622</v>
+        <v>-0.004853726755254485</v>
       </c>
       <c r="D88">
-        <v>0.0226910504540135</v>
+        <v>0.006062007249094608</v>
       </c>
       <c r="E88">
-        <v>0.003592291656785749</v>
+        <v>-0.007740335846776717</v>
       </c>
       <c r="F88">
-        <v>0.03186534125671531</v>
+        <v>0.01227060463540867</v>
       </c>
       <c r="G88">
-        <v>-0.0859284466766501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.006540767199172313</v>
+      </c>
+      <c r="H88">
+        <v>-0.007916112146516814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.129361224443954</v>
+        <v>0.2134854642024347</v>
       </c>
       <c r="C89">
-        <v>-0.09870457965511682</v>
+        <v>0.07427699102186421</v>
       </c>
       <c r="D89">
-        <v>0.04061144148096025</v>
+        <v>0.3176785506770163</v>
       </c>
       <c r="E89">
-        <v>0.3082320507629636</v>
+        <v>0.07826273021333666</v>
       </c>
       <c r="F89">
-        <v>0.09895736728851684</v>
+        <v>-0.1688695606925333</v>
       </c>
       <c r="G89">
-        <v>-0.05832850315256292</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.005963576805645309</v>
+      </c>
+      <c r="H89">
+        <v>0.0264720800028495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1169192844772149</v>
+        <v>0.169610727130379</v>
       </c>
       <c r="C90">
-        <v>-0.1000474849768192</v>
+        <v>0.0600303986285537</v>
       </c>
       <c r="D90">
-        <v>0.08841021784078287</v>
+        <v>0.2776075882941932</v>
       </c>
       <c r="E90">
-        <v>0.2673785384461544</v>
+        <v>0.04990408716904397</v>
       </c>
       <c r="F90">
-        <v>0.05411029878626301</v>
+        <v>-0.1601347257265319</v>
       </c>
       <c r="G90">
-        <v>0.01822272033932667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0372362312413359</v>
+      </c>
+      <c r="H90">
+        <v>0.04512907300370148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2836916748209229</v>
+        <v>0.2189277161199623</v>
       </c>
       <c r="C91">
-        <v>-0.09663377929209295</v>
+        <v>0.1360707192185064</v>
       </c>
       <c r="D91">
-        <v>-0.06373409216015025</v>
+        <v>-0.1184952227603787</v>
       </c>
       <c r="E91">
-        <v>-0.07038426647681204</v>
+        <v>0.01527155836729245</v>
       </c>
       <c r="F91">
-        <v>-0.2489219782362473</v>
+        <v>0.150350267781151</v>
       </c>
       <c r="G91">
-        <v>-0.05232056138717477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.2135493855068623</v>
+      </c>
+      <c r="H91">
+        <v>0.132397415403061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1896197972192919</v>
+        <v>0.2240550209221507</v>
       </c>
       <c r="C92">
-        <v>-0.08689856584528124</v>
+        <v>0.1347366923909781</v>
       </c>
       <c r="D92">
-        <v>0.1187600118833306</v>
+        <v>0.2284721015648329</v>
       </c>
       <c r="E92">
-        <v>0.4738256404874679</v>
+        <v>0.03685682857140216</v>
       </c>
       <c r="F92">
-        <v>0.1391213743358903</v>
+        <v>-0.1352057528950413</v>
       </c>
       <c r="G92">
-        <v>-0.2213168336690182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04713879147032158</v>
+      </c>
+      <c r="H92">
+        <v>0.1439045591625184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1304224275778842</v>
+        <v>0.1934896333025752</v>
       </c>
       <c r="C93">
-        <v>-0.08473655481219605</v>
+        <v>0.07533703453551419</v>
       </c>
       <c r="D93">
-        <v>0.1002175188741708</v>
+        <v>0.2938211317558832</v>
       </c>
       <c r="E93">
-        <v>0.3783801345142113</v>
+        <v>0.06749264736672189</v>
       </c>
       <c r="F93">
-        <v>-0.002484851928644915</v>
+        <v>-0.1955318787873448</v>
       </c>
       <c r="G93">
-        <v>0.03151168028251064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04527987177777234</v>
+      </c>
+      <c r="H93">
+        <v>-0.01416645279826378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2556497298789867</v>
+        <v>0.2398267941488681</v>
       </c>
       <c r="C94">
-        <v>-0.1293658906918077</v>
+        <v>0.1285750926815464</v>
       </c>
       <c r="D94">
-        <v>-0.03595304326377691</v>
+        <v>-0.09424533379921445</v>
       </c>
       <c r="E94">
-        <v>-0.09230393665059489</v>
+        <v>0.03229440923249067</v>
       </c>
       <c r="F94">
-        <v>-0.2997193701680723</v>
+        <v>0.1689520278781813</v>
       </c>
       <c r="G94">
-        <v>-0.008320831891725819</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2216732030867321</v>
+      </c>
+      <c r="H94">
+        <v>0.1452122624131755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07612007786220612</v>
+        <v>0.06168396134679375</v>
       </c>
       <c r="C95">
-        <v>-0.02018168608534723</v>
+        <v>0.04132922762191108</v>
       </c>
       <c r="D95">
-        <v>-0.05956723413712864</v>
+        <v>-0.07194691234925982</v>
       </c>
       <c r="E95">
-        <v>-0.06508418884193655</v>
+        <v>0.07140953275686902</v>
       </c>
       <c r="F95">
-        <v>0.01665856823587961</v>
+        <v>0.03485998946368207</v>
       </c>
       <c r="G95">
-        <v>-0.3937063633072254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05943186890972522</v>
+      </c>
+      <c r="H95">
+        <v>-0.01056171346564426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1929403144645781</v>
+        <v>0.1715552218917431</v>
       </c>
       <c r="C98">
-        <v>-0.05504400534917919</v>
+        <v>0.09754024050132007</v>
       </c>
       <c r="D98">
-        <v>-0.0422959308440364</v>
+        <v>-0.02767631217439202</v>
       </c>
       <c r="E98">
-        <v>0.05830256900533719</v>
+        <v>0.05580118754407319</v>
       </c>
       <c r="F98">
-        <v>0.02950157596350174</v>
+        <v>0.03661780123190916</v>
       </c>
       <c r="G98">
-        <v>0.2570488783185108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1456635274556121</v>
+      </c>
+      <c r="H98">
+        <v>-0.3726086407349128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002902754153368587</v>
+        <v>0.01395940560049869</v>
       </c>
       <c r="C101">
-        <v>-0.02881695651687793</v>
+        <v>0.002442869218255035</v>
       </c>
       <c r="D101">
-        <v>-0.0126889681302888</v>
+        <v>-0.002975865590500355</v>
       </c>
       <c r="E101">
-        <v>-0.1206513960914566</v>
+        <v>-0.005735547980700357</v>
       </c>
       <c r="F101">
-        <v>0.1975161580969856</v>
+        <v>0.03662595702424436</v>
       </c>
       <c r="G101">
-        <v>0.07132448764302214</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09821482663925958</v>
+      </c>
+      <c r="H101">
+        <v>0.06982768631829959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09037877021781322</v>
+        <v>0.1013740805965337</v>
       </c>
       <c r="C102">
-        <v>-0.02871801063593341</v>
+        <v>0.04961670121781185</v>
       </c>
       <c r="D102">
-        <v>-0.0161510592917948</v>
+        <v>-0.06055387415337375</v>
       </c>
       <c r="E102">
-        <v>-0.08435258730232192</v>
+        <v>-0.0004396021317117941</v>
       </c>
       <c r="F102">
-        <v>-0.1232224809984053</v>
+        <v>0.07622774488853469</v>
       </c>
       <c r="G102">
-        <v>-0.09624076550561352</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09618259662849958</v>
+      </c>
+      <c r="H102">
+        <v>0.05832815741223986</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02377304936936251</v>
+        <v>0.02116359219280209</v>
       </c>
       <c r="C103">
-        <v>-0.01118086290723838</v>
+        <v>0.0115116209532742</v>
       </c>
       <c r="D103">
-        <v>-0.0108172710738077</v>
+        <v>-0.0128589181166548</v>
       </c>
       <c r="E103">
-        <v>-0.007470361373659168</v>
+        <v>-0.005954363771020306</v>
       </c>
       <c r="F103">
-        <v>-0.02253497201214259</v>
+        <v>0.01840435715267719</v>
       </c>
       <c r="G103">
-        <v>-0.03962620519524764</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.009968384068275089</v>
+      </c>
+      <c r="H103">
+        <v>0.01011100446273529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4087939215951137</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.889901664082982</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06889212825272556</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02429767290873109</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1558928430910251</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03721582991401998</v>
+      </c>
+      <c r="H104">
+        <v>0.03265630917553845</v>
       </c>
     </row>
   </sheetData>
